--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.2_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.2_TC2.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2703809809809795</v>
+        <v>0.2556750986280383</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2703809809809795, 'ngram_match_score': 0.09175487238184334, 'weighted_ngram_match_score': 0.10590781473966131, 'syntax_match_score': 0.5897435897435898, 'dataflow_match_score': 0.29411764705882354}</t>
+          <t>{'codebleu': 0.25567509862803833, 'ngram_match_score': 0.09175487238184334, 'weighted_ngram_match_score': 0.10590781473966131, 'syntax_match_score': 0.5897435897435898, 'dataflow_match_score': 0.23529411764705882}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.2_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.2_TC2.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2556750986280383</v>
+        <v>0.2939103927456854</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.25567509862803833, 'ngram_match_score': 0.09175487238184334, 'weighted_ngram_match_score': 0.10590781473966131, 'syntax_match_score': 0.5897435897435898, 'dataflow_match_score': 0.23529411764705882}</t>
+          <t>{'codebleu': 0.29391039274568537, 'ngram_match_score': 0.09175487238184334, 'weighted_ngram_match_score': 0.10590781473966131, 'syntax_match_score': 0.5897435897435898, 'dataflow_match_score': 0.38823529411764707}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
